--- a/00_Dokumentation/Terminplan.xlsx
+++ b/00_Dokumentation/Terminplan.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyder_j\OneDrive - Rondo\Documents\GitHub\Pflanzenwagen\00_Dokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\313\Documents\GitHub\Pflanzenwagen\00_Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E17F2E9-1B5F-4FA8-A5E7-52FF65C72A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DD8F7BB-D6B0-4A98-9E20-616305C10EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1 (2)" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Aufgabenstellung klären</t>
   </si>
@@ -122,13 +122,22 @@
   <si>
     <t>Projekt Pflanzenwagen</t>
   </si>
+  <si>
+    <t>Meilenstein: Lösungsvariante gefunden</t>
+  </si>
+  <si>
+    <t>Meilenstein: CAD fertig</t>
+  </si>
+  <si>
+    <t>3D-Modell erstellen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -832,9 +841,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -865,37 +874,21 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -909,7 +902,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -917,14 +909,29 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -935,38 +942,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -977,40 +981,290 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma 2" xfId="2" xr:uid="{C63A7BF4-F4C8-40D7-9BD8-D9C26D36499B}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{740C76B9-A029-431A-9F8E-A967CD293576}"/>
   </cellStyles>
-  <dxfs count="211">
+  <dxfs count="246">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2765,10 +3019,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AB45"/>
+  <dimension ref="B1:AB51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y45"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC30" sqref="AC30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2782,535 +3036,535 @@
   <sheetData>
     <row r="1" spans="2:20" ht="9.9499999999999993" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:20" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="68">
+      <c r="C2" s="63">
         <v>44896</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="68">
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="63">
         <v>44927</v>
       </c>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="68">
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="63">
         <v>44958</v>
       </c>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="70"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="65"/>
     </row>
     <row r="3" spans="2:20" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="89"/>
-      <c r="C3" s="87" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="71" t="s">
+      <c r="D3" s="62"/>
+      <c r="E3" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="72"/>
-      <c r="G3" s="73" t="s">
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="71" t="s">
+      <c r="H3" s="75"/>
+      <c r="I3" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="72"/>
-      <c r="K3" s="73" t="s">
+      <c r="J3" s="60"/>
+      <c r="K3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="88"/>
-      <c r="M3" s="71" t="s">
+      <c r="L3" s="62"/>
+      <c r="M3" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="72"/>
-      <c r="O3" s="73" t="s">
+      <c r="N3" s="60"/>
+      <c r="O3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="71" t="s">
+      <c r="P3" s="62"/>
+      <c r="Q3" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="R3" s="72"/>
-      <c r="S3" s="73" t="s">
+      <c r="R3" s="60"/>
+      <c r="S3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="74"/>
+      <c r="T3" s="75"/>
     </row>
     <row r="4" spans="2:20" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="89"/>
-      <c r="C4" s="83">
+      <c r="B4" s="76"/>
+      <c r="C4" s="68">
         <v>50</v>
       </c>
-      <c r="D4" s="82"/>
-      <c r="E4" s="80">
+      <c r="D4" s="69"/>
+      <c r="E4" s="70">
         <v>51</v>
       </c>
-      <c r="F4" s="82"/>
-      <c r="G4" s="80">
+      <c r="F4" s="69"/>
+      <c r="G4" s="70">
         <v>52</v>
       </c>
-      <c r="H4" s="81"/>
-      <c r="I4" s="83">
+      <c r="H4" s="71"/>
+      <c r="I4" s="68">
         <v>1</v>
       </c>
-      <c r="J4" s="82"/>
-      <c r="K4" s="80">
+      <c r="J4" s="69"/>
+      <c r="K4" s="70">
         <v>2</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="80">
+      <c r="L4" s="69"/>
+      <c r="M4" s="70">
         <v>3</v>
       </c>
-      <c r="N4" s="82"/>
-      <c r="O4" s="80">
+      <c r="N4" s="69"/>
+      <c r="O4" s="70">
         <v>4</v>
       </c>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="83">
+      <c r="P4" s="71"/>
+      <c r="Q4" s="68">
         <v>5</v>
       </c>
-      <c r="R4" s="82"/>
-      <c r="S4" s="80">
+      <c r="R4" s="69"/>
+      <c r="S4" s="70">
         <v>6</v>
       </c>
-      <c r="T4" s="81"/>
+      <c r="T4" s="71"/>
     </row>
     <row r="5" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="93"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="67"/>
     </row>
     <row r="6" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="31"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="22"/>
     </row>
     <row r="7" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="84"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="41"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="28"/>
     </row>
     <row r="8" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="31"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="22"/>
     </row>
     <row r="9" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="76"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="41"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="28"/>
     </row>
     <row r="10" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
-      <c r="O10" s="91"/>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
-      <c r="T10" s="95"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="54"/>
     </row>
     <row r="11" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="75" t="s">
+      <c r="B11" s="57" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="53"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="31"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="22"/>
     </row>
     <row r="12" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="76"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="41"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="28"/>
     </row>
     <row r="13" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="55" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="54"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="30"/>
-      <c r="S13" s="30"/>
-      <c r="T13" s="31"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="22"/>
     </row>
     <row r="14" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="76"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="41"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="28"/>
     </row>
     <row r="15" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="55" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="31"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="22"/>
     </row>
     <row r="16" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="76"/>
+      <c r="B16" s="55"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="29"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="41"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="28"/>
     </row>
     <row r="17" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="57"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="41"/>
     </row>
     <row r="18" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="76"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="29"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="41"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="28"/>
     </row>
     <row r="19" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="56" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="42"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="29"/>
     </row>
     <row r="20" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="96"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="41"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="28"/>
     </row>
     <row r="21" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="94"/>
-      <c r="S21" s="94"/>
-      <c r="T21" s="95"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="53"/>
+      <c r="S21" s="53"/>
+      <c r="T21" s="54"/>
     </row>
     <row r="22" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="57" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="31"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="22"/>
     </row>
     <row r="23" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="76"/>
+      <c r="B23" s="55"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="36"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="41"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="28"/>
     </row>
     <row r="24" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="55" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="4"/>
@@ -3318,205 +3572,205 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="30"/>
-      <c r="S24" s="30"/>
-      <c r="T24" s="31"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="22"/>
       <c r="U24" s="1"/>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
     </row>
     <row r="25" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="76"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="41"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="30"/>
+      <c r="T25" s="28"/>
     </row>
     <row r="26" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="22"/>
+    </row>
+    <row r="27" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="55"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="28"/>
+    </row>
+    <row r="28" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="91"/>
-      <c r="P26" s="91"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="94"/>
-      <c r="S26" s="94"/>
-      <c r="T26" s="95"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="53"/>
+      <c r="T28" s="54"/>
     </row>
-    <row r="27" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="96" t="s">
+    <row r="29" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="44"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="22"/>
     </row>
-    <row r="28" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="77"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="60"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="45"/>
+    <row r="30" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="58"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="28"/>
     </row>
-    <row r="29" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="90" t="s">
+    <row r="31" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="91"/>
-      <c r="P29" s="91"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="94"/>
-      <c r="S29" s="94"/>
-      <c r="T29" s="95"/>
-    </row>
-    <row r="30" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="31"/>
-    </row>
-    <row r="31" spans="2:28" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="76"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="41"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="52"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="53"/>
+      <c r="R31" s="53"/>
+      <c r="S31" s="53"/>
+      <c r="T31" s="54"/>
     </row>
     <row r="32" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="76" t="s">
-        <v>16</v>
+      <c r="B32" s="55" t="s">
+        <v>31</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="56"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="7"/>
       <c r="R32" s="4"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="31"/>
+      <c r="T32" s="22"/>
     </row>
     <row r="33" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="76"/>
-      <c r="C33" s="3"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="89"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -3525,308 +3779,444 @@
       <c r="I33" s="10"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="29"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="2"/>
       <c r="Q33" s="10"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="41"/>
+      <c r="T33" s="28"/>
     </row>
     <row r="34" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="90" t="s">
+      <c r="B34" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="22"/>
+    </row>
+    <row r="35" spans="2:23" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="55"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="28"/>
+    </row>
+    <row r="36" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="22"/>
+    </row>
+    <row r="37" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="55"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="88"/>
+      <c r="R37" s="46"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="28"/>
+    </row>
+    <row r="38" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="82"/>
+      <c r="P38" s="87"/>
+      <c r="Q38" s="81"/>
+      <c r="R38" s="85"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="22"/>
+    </row>
+    <row r="39" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="55"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="28"/>
+    </row>
+    <row r="40" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="91"/>
-      <c r="P34" s="91"/>
-      <c r="Q34" s="94"/>
-      <c r="R34" s="94"/>
-      <c r="S34" s="94"/>
-      <c r="T34" s="95"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="53"/>
+      <c r="R40" s="53"/>
+      <c r="S40" s="53"/>
+      <c r="T40" s="54"/>
     </row>
-    <row r="35" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="75" t="s">
+    <row r="41" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="46"/>
-      <c r="R35" s="67"/>
-      <c r="S35" s="67"/>
-      <c r="T35" s="47"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="50"/>
+      <c r="S41" s="50"/>
+      <c r="T41" s="32"/>
     </row>
-    <row r="36" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="76"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="45"/>
+    <row r="42" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="55"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="28"/>
     </row>
-    <row r="37" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="76" t="s">
+    <row r="43" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="40"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="56"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="44"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="22"/>
     </row>
-    <row r="38" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="76"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="29"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="45"/>
+    <row r="44" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="55"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="88"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="28"/>
     </row>
-    <row r="39" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="76" t="s">
+    <row r="45" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="54"/>
-      <c r="T39" s="57"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="38"/>
+      <c r="T45" s="41"/>
     </row>
-    <row r="40" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="76"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="29"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="45"/>
+    <row r="46" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="55"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="46"/>
+      <c r="T46" s="28"/>
     </row>
-    <row r="41" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="18" t="s">
+    <row r="47" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="48"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="20"/>
-      <c r="V41" s="51"/>
-      <c r="W41" s="1" t="s">
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="19"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="20"/>
+      <c r="V47" s="35"/>
+      <c r="W47" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="77" t="s">
+    <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="54"/>
-      <c r="T42" s="57"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="38"/>
+      <c r="T48" s="41"/>
     </row>
-    <row r="43" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="79"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="45"/>
-      <c r="V43" s="52"/>
-      <c r="W43" s="1" t="s">
+    <row r="49" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="78"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="46"/>
+      <c r="T49" s="28"/>
+      <c r="V49" s="36"/>
+      <c r="W49" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="77" t="s">
+    <row r="50" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="4"/>
-      <c r="S44" s="4"/>
-      <c r="T44" s="49"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="34"/>
     </row>
-    <row r="45" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="78"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="29"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="50"/>
-      <c r="V45" s="21"/>
-      <c r="W45" t="s">
+    <row r="51" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="77"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="92"/>
+      <c r="V51" s="21"/>
+      <c r="W51" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="B34:T34"/>
-    <mergeCell ref="B29:T29"/>
-    <mergeCell ref="B26:T26"/>
-    <mergeCell ref="B21:T21"/>
-    <mergeCell ref="B10:T10"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B17:B18"/>
+  <mergeCells count="48">
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B48:B49"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="O3:P3"/>
@@ -3839,1042 +4229,1212 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B42:B43"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:T3"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
     <mergeCell ref="O4:P4"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B40:T40"/>
+    <mergeCell ref="B31:T31"/>
+    <mergeCell ref="B28:T28"/>
+    <mergeCell ref="B21:T21"/>
+    <mergeCell ref="B10:T10"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B38:B39"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="P9 B5 B10 B41 C8 B21 B26 B29 B34 G8 P13:P15 M32:P32 I9 I13:L15 I30:L30 I36:L36 I40:L40 I42:L42 C13:F15 C30:F30 C36:F36 C40:F40 C42:F42 I17:T17">
-    <cfRule type="cellIs" dxfId="210" priority="848" operator="equal">
+  <conditionalFormatting sqref="P9 B5 B10 B47 C8 B21 B28 B31 B40 G8 P13:P15 M36:P36 I9 I13:L15 I34:L34 I42:L42 I46:L46 I48:L48 C13:F15 C34:F34 C42:F42 C46:F46 C48:F48 I17:T17">
+    <cfRule type="cellIs" dxfId="245" priority="883" operator="equal">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:F8 K9:L9 O13:O15 O9">
-    <cfRule type="cellIs" dxfId="209" priority="847" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O24 O8:P8 P22:P24 B8 B11 B30 B32 B37 B39 B42 C9:H9 B13 P11:P12 B15 W41 M32:P32 O27:P28 O20:P20 I6:L8 I22:L25 I17:P17 I11:L12 I43:L43 I35:L35 I31:L33 I37:L39 C11:F12 B22 B24 C22:F25 C43:F43 B19:P19 C16:P16 C45:P45 B44:P44 C28:L28 B27:L27 C20:J20 C31:F33 B35:F35 C37:F39 B17 C17:F18">
-    <cfRule type="cellIs" dxfId="208" priority="846" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="882" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O24 O8:P8 P22:P24 B8 B11 B34 B36 B43 B45 B48 C9:H9 B13 P11:P12 B15 W47 M36:P36 O29:P30 O20:P20 I6:L8 I17:P17 I11:L12 I49:L49 I41:L41 I43:L45 C11:F12 B22 B24 C49:F49 B19:P19 C16:P16 C51:P51 B50:P50 C30:L30 B29:L29 C20:J20 B41:F41 C43:F45 B17 C17:F18 O26:P26 I22:L27 B26 C22:F27 B38 M38:P38 I35:L39 C35:F39">
+    <cfRule type="cellIs" dxfId="243" priority="881" operator="equal">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22:O23 O11:O12 D9:H9">
-    <cfRule type="cellIs" dxfId="207" priority="845" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4 K4 O4 B4:B5 B8 B10:B11 B21:B22 B26:B27 B29:B30 B34:B35 B44 B41:B42 B13 B15 W41 O27:P28 O20:P20 C8:H9 I6:P9 B24 C42:P43 C33:N33 C30:L30 C11:P16 B32:P32 C35:N36 B39:P39 B37:L37 B19:P19 C27:L28 C31:P31 C38:N38 C20:J20 C22:P25 C40:N40 B17:P17 C18:H18 Q35:T40 C44:T45 Q11:T17">
-    <cfRule type="cellIs" dxfId="206" priority="843" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="880" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4 K4 O4 B4:B5 B8 B10:B11 B21:B22 B28:B29 B31 B40:B41 B50 B47:B48 B13 B15 W47 O29:P30 O20:P20 C8:H9 I6:P9 B24 C48:P49 C37:N37 C11:P16 B36:P36 C41:N42 B45:P45 B43:L43 B19:P19 C29:L30 C35:P35 C44:N44 C20:J20 C46:N46 B17:P17 C18:H18 Q41:T46 C50:T51 Q11:T17 B26 C22:P27 C39:N39 B38:P38 B34:L34 B32:L32 C33:P33">
+    <cfRule type="cellIs" dxfId="241" priority="878" operator="equal">
       <formula>"a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="844" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="879" operator="equal">
       <formula>"s"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V41">
-    <cfRule type="cellIs" dxfId="204" priority="842" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V41">
-    <cfRule type="cellIs" dxfId="203" priority="840" operator="equal">
+  <conditionalFormatting sqref="V47">
+    <cfRule type="cellIs" dxfId="239" priority="877" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V47">
+    <cfRule type="cellIs" dxfId="238" priority="875" operator="equal">
       <formula>"a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="841" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="876" operator="equal">
       <formula>"s"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8 J9 H8">
-    <cfRule type="cellIs" dxfId="201" priority="839" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="874" operator="equal">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:H9 G13:H15 M9:N9 M13:N15">
-    <cfRule type="cellIs" dxfId="200" priority="838" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="873" operator="equal">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24:H24 M24:N24 M8:N8">
-    <cfRule type="cellIs" dxfId="199" priority="837" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="872" operator="equal">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:H23 G11:H12 M22:N23 M11:N12">
-    <cfRule type="cellIs" dxfId="198" priority="836" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="871" operator="equal">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="cellIs" dxfId="197" priority="834" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="869" operator="equal">
       <formula>"a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="835" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="870" operator="equal">
       <formula>"s"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30:H30">
-    <cfRule type="cellIs" dxfId="195" priority="832" operator="equal">
+  <conditionalFormatting sqref="G34:H34">
+    <cfRule type="cellIs" dxfId="230" priority="867" operator="equal">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4 E4">
-    <cfRule type="cellIs" dxfId="194" priority="830" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="865" operator="equal">
       <formula>"a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="831" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="866" operator="equal">
       <formula>"s"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="cellIs" dxfId="192" priority="828" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="863" operator="equal">
       <formula>"a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="191" priority="829" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="864" operator="equal">
       <formula>"s"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O25:P25">
-    <cfRule type="cellIs" dxfId="190" priority="827" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25:H25 M25:N25">
-    <cfRule type="cellIs" dxfId="189" priority="826" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O43:P43">
-    <cfRule type="cellIs" dxfId="188" priority="825" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G43:H43 M43:N43">
-    <cfRule type="cellIs" dxfId="187" priority="824" operator="equal">
+  <conditionalFormatting sqref="O25:P25 O27:P27">
+    <cfRule type="cellIs" dxfId="225" priority="862" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25:H25 M25:N25 G27:H27 M27:N27">
+    <cfRule type="cellIs" dxfId="224" priority="861" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O49:P49">
+    <cfRule type="cellIs" dxfId="223" priority="860" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49:H49 M49:N49">
+    <cfRule type="cellIs" dxfId="222" priority="859" operator="equal">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:P7 E6:E7 B6 C6:C7">
-    <cfRule type="cellIs" dxfId="186" priority="718" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="753" operator="equal">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C7 B6 G6:G7 E6:E7">
-    <cfRule type="cellIs" dxfId="185" priority="716" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="751" operator="equal">
       <formula>"a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="717" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="752" operator="equal">
       <formula>"s"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:N7 G6:G7">
-    <cfRule type="cellIs" dxfId="183" priority="715" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P31:P32">
-    <cfRule type="cellIs" dxfId="182" priority="701" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O31">
-    <cfRule type="cellIs" dxfId="181" priority="700" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32:H32 M35:N35 G35:H35">
-    <cfRule type="cellIs" dxfId="180" priority="697" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:H31 M31:N31">
-    <cfRule type="cellIs" dxfId="179" priority="696" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G36:H36 M36:N36">
-    <cfRule type="cellIs" dxfId="178" priority="694" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="750" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P35:P36">
+    <cfRule type="cellIs" dxfId="217" priority="736" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O35">
+    <cfRule type="cellIs" dxfId="216" priority="735" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:H36 M41:N41 G41:H41">
+    <cfRule type="cellIs" dxfId="215" priority="732" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35:H35 M35:N35">
+    <cfRule type="cellIs" dxfId="214" priority="731" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42:H42 M42:N42">
+    <cfRule type="cellIs" dxfId="213" priority="729" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37:H37 M37:N37 G39:H39 M39:N39">
+    <cfRule type="cellIs" dxfId="212" priority="727" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46:H46 M46:N46">
+    <cfRule type="cellIs" dxfId="211" priority="604" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44:H44 M44:N44">
+    <cfRule type="cellIs" dxfId="210" priority="603" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G43:H43">
+    <cfRule type="cellIs" dxfId="209" priority="602" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O48:P48">
+    <cfRule type="cellIs" dxfId="208" priority="601" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48:H48 M48:N48">
+    <cfRule type="cellIs" dxfId="207" priority="600" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O45:P45">
+    <cfRule type="cellIs" dxfId="206" priority="599" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G45:H45 M45:N45">
+    <cfRule type="cellIs" dxfId="205" priority="598" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11:H11">
+    <cfRule type="cellIs" dxfId="204" priority="505" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:H12">
+    <cfRule type="cellIs" dxfId="203" priority="504" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12:H12">
+    <cfRule type="cellIs" dxfId="202" priority="503" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19:N19">
+    <cfRule type="cellIs" dxfId="201" priority="489" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19:N19">
+    <cfRule type="cellIs" dxfId="200" priority="488" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19:N19">
+    <cfRule type="cellIs" dxfId="199" priority="487" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19:N19">
+    <cfRule type="cellIs" dxfId="198" priority="486" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:L29">
+    <cfRule type="cellIs" dxfId="197" priority="485" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:L29">
+    <cfRule type="cellIs" dxfId="196" priority="484" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:L29">
+    <cfRule type="cellIs" dxfId="195" priority="483" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:L29">
+    <cfRule type="cellIs" dxfId="194" priority="482" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:J22">
+    <cfRule type="cellIs" dxfId="193" priority="481" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:J22">
+    <cfRule type="cellIs" dxfId="192" priority="480" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:J22">
+    <cfRule type="cellIs" dxfId="191" priority="479" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:J22">
+    <cfRule type="cellIs" dxfId="190" priority="478" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22:J22">
+    <cfRule type="cellIs" dxfId="189" priority="477" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:L24">
+    <cfRule type="cellIs" dxfId="188" priority="476" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:L24">
+    <cfRule type="cellIs" dxfId="187" priority="475" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:L24">
+    <cfRule type="cellIs" dxfId="186" priority="474" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K24:L24">
+    <cfRule type="cellIs" dxfId="185" priority="473" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O19:P19">
+    <cfRule type="cellIs" dxfId="184" priority="455" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O19:P19">
+    <cfRule type="cellIs" dxfId="183" priority="458" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O19:P19">
+    <cfRule type="cellIs" dxfId="182" priority="457" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O19:P19">
+    <cfRule type="cellIs" dxfId="181" priority="456" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16:L16">
+    <cfRule type="cellIs" dxfId="180" priority="393" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:J25 I27:J27">
+    <cfRule type="cellIs" dxfId="179" priority="392" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:J25 I27:J27">
+    <cfRule type="cellIs" dxfId="178" priority="388" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:J25 I27:J27">
+    <cfRule type="cellIs" dxfId="177" priority="391" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:J25 I27:J27">
+    <cfRule type="cellIs" dxfId="176" priority="390" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:J25 I27:J27">
+    <cfRule type="cellIs" dxfId="175" priority="389" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34:P34">
+    <cfRule type="cellIs" dxfId="174" priority="381" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34:P34">
+    <cfRule type="cellIs" dxfId="173" priority="387" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34:P34">
+    <cfRule type="cellIs" dxfId="172" priority="385" operator="equal">
+      <formula>"a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="171" priority="386" operator="equal">
+      <formula>"s"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34:P34">
+    <cfRule type="cellIs" dxfId="170" priority="384" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34:P34">
+    <cfRule type="cellIs" dxfId="169" priority="383" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34:P34">
+    <cfRule type="cellIs" dxfId="168" priority="382" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O41:P41">
+    <cfRule type="cellIs" dxfId="167" priority="374" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O41:P41">
+    <cfRule type="cellIs" dxfId="166" priority="380" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O41:P41">
+    <cfRule type="cellIs" dxfId="165" priority="378" operator="equal">
+      <formula>"a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="379" operator="equal">
+      <formula>"s"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O41:P41">
+    <cfRule type="cellIs" dxfId="163" priority="377" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O41:P41">
+    <cfRule type="cellIs" dxfId="162" priority="376" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O41:P41">
+    <cfRule type="cellIs" dxfId="161" priority="375" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M43:P43">
+    <cfRule type="cellIs" dxfId="160" priority="367" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M43:P43">
+    <cfRule type="cellIs" dxfId="159" priority="373" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M43:P43">
+    <cfRule type="cellIs" dxfId="158" priority="371" operator="equal">
+      <formula>"a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="157" priority="372" operator="equal">
+      <formula>"s"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M43:P43">
+    <cfRule type="cellIs" dxfId="156" priority="370" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M43:P43">
+    <cfRule type="cellIs" dxfId="155" priority="369" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M43:P43">
+    <cfRule type="cellIs" dxfId="154" priority="368" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P17">
+    <cfRule type="cellIs" dxfId="153" priority="365" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17:H18 M17:N17">
+    <cfRule type="cellIs" dxfId="152" priority="361" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:P18">
+    <cfRule type="cellIs" dxfId="151" priority="339" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:P18">
+    <cfRule type="cellIs" dxfId="150" priority="337" operator="equal">
+      <formula>"a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="338" operator="equal">
+      <formula>"s"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:P18">
+    <cfRule type="cellIs" dxfId="148" priority="333" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:P18">
+    <cfRule type="cellIs" dxfId="147" priority="336" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:P18">
+    <cfRule type="cellIs" dxfId="146" priority="335" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:P18">
+    <cfRule type="cellIs" dxfId="145" priority="334" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M29:N29">
+    <cfRule type="cellIs" dxfId="144" priority="318" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M29:N29">
+    <cfRule type="cellIs" dxfId="143" priority="316" operator="equal">
+      <formula>"a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="317" operator="equal">
+      <formula>"s"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M29:N29">
+    <cfRule type="cellIs" dxfId="141" priority="312" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M29:N29">
+    <cfRule type="cellIs" dxfId="140" priority="315" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M29:N29">
+    <cfRule type="cellIs" dxfId="139" priority="314" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M29:N29">
+    <cfRule type="cellIs" dxfId="138" priority="313" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:N30">
+    <cfRule type="cellIs" dxfId="137" priority="311" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:N30">
+    <cfRule type="cellIs" dxfId="136" priority="309" operator="equal">
+      <formula>"a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="135" priority="310" operator="equal">
+      <formula>"s"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:N30">
+    <cfRule type="cellIs" dxfId="134" priority="305" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:N30">
+    <cfRule type="cellIs" dxfId="133" priority="308" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:N30">
+    <cfRule type="cellIs" dxfId="132" priority="307" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30:N30">
+    <cfRule type="cellIs" dxfId="131" priority="306" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M35:P35">
+    <cfRule type="cellIs" dxfId="130" priority="304" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M35:P35">
+    <cfRule type="cellIs" dxfId="129" priority="303" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M35:P35">
+    <cfRule type="cellIs" dxfId="128" priority="299" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M35:P35">
+    <cfRule type="cellIs" dxfId="127" priority="302" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M35:P35">
+    <cfRule type="cellIs" dxfId="126" priority="301" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M35:P35">
+    <cfRule type="cellIs" dxfId="125" priority="300" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O37:P37 O39:P39">
+    <cfRule type="cellIs" dxfId="124" priority="297" operator="equal">
+      <formula>"a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="123" priority="298" operator="equal">
+      <formula>"s"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O37:P37 O39:P39">
+    <cfRule type="cellIs" dxfId="122" priority="296" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O37:P37 O39:P39">
+    <cfRule type="cellIs" dxfId="121" priority="295" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O37:P37 O39:P39">
+    <cfRule type="cellIs" dxfId="120" priority="294" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O37:P37 O39:P39">
+    <cfRule type="cellIs" dxfId="119" priority="290" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O37:P37 O39:P39">
+    <cfRule type="cellIs" dxfId="118" priority="293" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O37:P37 O39:P39">
+    <cfRule type="cellIs" dxfId="117" priority="292" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O37:P37 O39:P39">
+    <cfRule type="cellIs" dxfId="116" priority="291" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O42:P42">
+    <cfRule type="cellIs" dxfId="115" priority="288" operator="equal">
+      <formula>"a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="114" priority="289" operator="equal">
+      <formula>"s"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O42:P42">
+    <cfRule type="cellIs" dxfId="113" priority="287" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O42:P42">
+    <cfRule type="cellIs" dxfId="112" priority="286" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O42:P42">
+    <cfRule type="cellIs" dxfId="111" priority="285" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O42:P42">
+    <cfRule type="cellIs" dxfId="110" priority="281" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O42:P42">
+    <cfRule type="cellIs" dxfId="109" priority="284" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O42:P42">
+    <cfRule type="cellIs" dxfId="108" priority="283" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O42:P42">
+    <cfRule type="cellIs" dxfId="107" priority="282" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O44:P44">
+    <cfRule type="cellIs" dxfId="106" priority="279" operator="equal">
+      <formula>"a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="280" operator="equal">
+      <formula>"s"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O44:P44">
+    <cfRule type="cellIs" dxfId="104" priority="278" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O44:P44">
+    <cfRule type="cellIs" dxfId="103" priority="277" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O44:P44">
+    <cfRule type="cellIs" dxfId="102" priority="276" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O44:P44">
+    <cfRule type="cellIs" dxfId="101" priority="272" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O44:P44">
+    <cfRule type="cellIs" dxfId="100" priority="275" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O44:P44">
+    <cfRule type="cellIs" dxfId="99" priority="274" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O44:P44">
+    <cfRule type="cellIs" dxfId="98" priority="273" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20:N20">
+    <cfRule type="cellIs" dxfId="97" priority="271" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20:N20">
+    <cfRule type="cellIs" dxfId="96" priority="269" operator="equal">
+      <formula>"a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="270" operator="equal">
+      <formula>"s"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20:N20">
+    <cfRule type="cellIs" dxfId="94" priority="265" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20:N20">
+    <cfRule type="cellIs" dxfId="93" priority="268" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20:N20">
+    <cfRule type="cellIs" dxfId="92" priority="267" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20:N20">
+    <cfRule type="cellIs" dxfId="91" priority="266" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25:L25 K27:L27">
+    <cfRule type="cellIs" dxfId="90" priority="264" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25:L25 K27:L27">
+    <cfRule type="cellIs" dxfId="89" priority="260" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25:L25 K27:L27">
+    <cfRule type="cellIs" dxfId="88" priority="263" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25:L25 K27:L27">
+    <cfRule type="cellIs" dxfId="87" priority="262" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25:L25 K27:L27">
+    <cfRule type="cellIs" dxfId="86" priority="261" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O46:P46">
+    <cfRule type="cellIs" dxfId="85" priority="231" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O46:P46">
+    <cfRule type="cellIs" dxfId="84" priority="229" operator="equal">
+      <formula>"a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="230" operator="equal">
+      <formula>"s"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O46:P46">
+    <cfRule type="cellIs" dxfId="82" priority="225" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O46:P46">
+    <cfRule type="cellIs" dxfId="81" priority="228" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O46:P46">
+    <cfRule type="cellIs" dxfId="80" priority="227" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O46:P46">
+    <cfRule type="cellIs" dxfId="79" priority="226" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q9 Q13:T15 Q34:T34 Q42:T42 Q46:T46 Q48:T48">
+    <cfRule type="cellIs" dxfId="78" priority="203" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S9:T9">
+    <cfRule type="cellIs" dxfId="77" priority="202" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6:T8 Q11:T12 Q41:T41 Q43:T45 Q19:T19 Q16:T17 Q49:T51 Q29:T30 Q20:R20 Q22:T27 Q35:T39">
+    <cfRule type="cellIs" dxfId="76" priority="201" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4 S4 Q6:T9 Q48:T49 Q19:T19 Q29:T30 Q20:R20 Q22:T27 Q34:T39">
+    <cfRule type="cellIs" dxfId="75" priority="198" operator="equal">
+      <formula>"a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="199" operator="equal">
+      <formula>"s"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R9">
+    <cfRule type="cellIs" dxfId="73" priority="197" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S29:T29">
+    <cfRule type="cellIs" dxfId="72" priority="165" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S29:T29">
+    <cfRule type="cellIs" dxfId="71" priority="164" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S29:T29">
+    <cfRule type="cellIs" dxfId="70" priority="163" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S29:T29">
+    <cfRule type="cellIs" dxfId="69" priority="162" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q22:R22">
+    <cfRule type="cellIs" dxfId="68" priority="161" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q22:R22">
+    <cfRule type="cellIs" dxfId="67" priority="160" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q22:R22">
+    <cfRule type="cellIs" dxfId="66" priority="159" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q22:R22">
+    <cfRule type="cellIs" dxfId="65" priority="158" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q22:R22">
+    <cfRule type="cellIs" dxfId="64" priority="157" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S24:T24">
+    <cfRule type="cellIs" dxfId="63" priority="156" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S24:T24">
+    <cfRule type="cellIs" dxfId="62" priority="155" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S24:T24">
+    <cfRule type="cellIs" dxfId="61" priority="154" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S24:T24">
+    <cfRule type="cellIs" dxfId="60" priority="153" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S16:T16">
+    <cfRule type="cellIs" dxfId="59" priority="144" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q25:R25 Q27:R27">
+    <cfRule type="cellIs" dxfId="58" priority="143" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q25:R25 Q27:R27">
+    <cfRule type="cellIs" dxfId="57" priority="139" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q25:R25 Q27:R27">
+    <cfRule type="cellIs" dxfId="56" priority="142" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q25:R25 Q27:R27">
+    <cfRule type="cellIs" dxfId="55" priority="141" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q25:R25 Q27:R27">
+    <cfRule type="cellIs" dxfId="54" priority="140" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q18:T18">
+    <cfRule type="cellIs" dxfId="53" priority="115" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q18:T18">
+    <cfRule type="cellIs" dxfId="52" priority="113" operator="equal">
+      <formula>"a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="114" operator="equal">
+      <formula>"s"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q18:T18">
+    <cfRule type="cellIs" dxfId="50" priority="109" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q18:T18">
+    <cfRule type="cellIs" dxfId="49" priority="112" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q18:T18">
+    <cfRule type="cellIs" dxfId="48" priority="111" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q18:T18">
+    <cfRule type="cellIs" dxfId="47" priority="110" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S20:T20">
+    <cfRule type="cellIs" dxfId="46" priority="54" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S20:T20">
+    <cfRule type="cellIs" dxfId="45" priority="52" operator="equal">
+      <formula>"a"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="53" operator="equal">
+      <formula>"s"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S20:T20">
+    <cfRule type="cellIs" dxfId="43" priority="48" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S20:T20">
+    <cfRule type="cellIs" dxfId="42" priority="51" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S20:T20">
+    <cfRule type="cellIs" dxfId="41" priority="50" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S20:T20">
+    <cfRule type="cellIs" dxfId="40" priority="49" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S25:T25 S27:T27">
+    <cfRule type="cellIs" dxfId="39" priority="47" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S25:T25 S27:T27">
+    <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S25:T25 S27:T27">
+    <cfRule type="cellIs" dxfId="37" priority="46" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S25:T25 S27:T27">
+    <cfRule type="cellIs" dxfId="36" priority="45" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S25:T25 S27:T27">
+    <cfRule type="cellIs" dxfId="35" priority="44" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26:H26 M26:N26">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26:L26">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26:L26">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26:L26">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26:L26">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S26:T26">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S26:T26">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S26:T26">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S26:T26">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M38:P38">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P38">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38:H38">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32:L32 C32:F32">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32 I33:L33 C33:F33">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:H32">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P33">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O33">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33:H33 M33:N33">
-    <cfRule type="cellIs" dxfId="177" priority="692" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G40:H40 M40:N40">
-    <cfRule type="cellIs" dxfId="176" priority="569" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G38:H38 M38:N38">
-    <cfRule type="cellIs" dxfId="175" priority="568" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G37:H37">
-    <cfRule type="cellIs" dxfId="174" priority="567" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O42:P42">
-    <cfRule type="cellIs" dxfId="173" priority="566" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G42:H42 M42:N42">
-    <cfRule type="cellIs" dxfId="172" priority="565" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O39:P39">
-    <cfRule type="cellIs" dxfId="171" priority="564" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G39:H39 M39:N39">
-    <cfRule type="cellIs" dxfId="170" priority="563" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G11:H11">
-    <cfRule type="cellIs" dxfId="169" priority="470" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:H12">
-    <cfRule type="cellIs" dxfId="168" priority="469" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:H12">
-    <cfRule type="cellIs" dxfId="167" priority="468" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M19:N19">
-    <cfRule type="cellIs" dxfId="166" priority="454" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M19:N19">
-    <cfRule type="cellIs" dxfId="165" priority="453" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M19:N19">
-    <cfRule type="cellIs" dxfId="164" priority="452" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M19:N19">
-    <cfRule type="cellIs" dxfId="163" priority="451" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27:L27">
-    <cfRule type="cellIs" dxfId="162" priority="450" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27:L27">
-    <cfRule type="cellIs" dxfId="161" priority="449" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27:L27">
-    <cfRule type="cellIs" dxfId="160" priority="448" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27:L27">
-    <cfRule type="cellIs" dxfId="159" priority="447" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22:J22">
-    <cfRule type="cellIs" dxfId="158" priority="446" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22:J22">
-    <cfRule type="cellIs" dxfId="157" priority="445" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22:J22">
-    <cfRule type="cellIs" dxfId="156" priority="444" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22:J22">
-    <cfRule type="cellIs" dxfId="155" priority="443" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22:J22">
-    <cfRule type="cellIs" dxfId="154" priority="442" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24:L24">
-    <cfRule type="cellIs" dxfId="153" priority="441" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24:L24">
-    <cfRule type="cellIs" dxfId="152" priority="440" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24:L24">
-    <cfRule type="cellIs" dxfId="151" priority="439" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24:L24">
-    <cfRule type="cellIs" dxfId="150" priority="438" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O19:P19">
-    <cfRule type="cellIs" dxfId="149" priority="420" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O19:P19">
-    <cfRule type="cellIs" dxfId="148" priority="423" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O19:P19">
-    <cfRule type="cellIs" dxfId="147" priority="422" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O19:P19">
-    <cfRule type="cellIs" dxfId="146" priority="421" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16:L16">
-    <cfRule type="cellIs" dxfId="145" priority="358" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25:J25">
-    <cfRule type="cellIs" dxfId="144" priority="357" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25:J25">
-    <cfRule type="cellIs" dxfId="143" priority="353" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25:J25">
-    <cfRule type="cellIs" dxfId="142" priority="356" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25:J25">
-    <cfRule type="cellIs" dxfId="141" priority="355" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25:J25">
-    <cfRule type="cellIs" dxfId="140" priority="354" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30:P30">
-    <cfRule type="cellIs" dxfId="139" priority="346" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30:P30">
-    <cfRule type="cellIs" dxfId="138" priority="352" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30:P30">
-    <cfRule type="cellIs" dxfId="137" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M32:P32">
+    <cfRule type="cellIs" dxfId="16" priority="11" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M32:P32">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M32:P32">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>"s"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M30:P30">
-    <cfRule type="cellIs" dxfId="135" priority="349" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30:P30">
-    <cfRule type="cellIs" dxfId="134" priority="348" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30:P30">
-    <cfRule type="cellIs" dxfId="133" priority="347" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O35:P35">
-    <cfRule type="cellIs" dxfId="132" priority="339" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O35:P35">
-    <cfRule type="cellIs" dxfId="131" priority="345" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O35:P35">
-    <cfRule type="cellIs" dxfId="130" priority="343" operator="equal">
+  <conditionalFormatting sqref="M32:P32">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M32:P32">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M32:P32">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M33:P33">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M33:P33">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M33:P33">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M33:P33">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M33:P33">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M33:P33">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q32:T32">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q33:T33">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>" "</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q32:T33">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"a"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="129" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"s"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O35:P35">
-    <cfRule type="cellIs" dxfId="128" priority="342" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O35:P35">
-    <cfRule type="cellIs" dxfId="127" priority="341" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O35:P35">
-    <cfRule type="cellIs" dxfId="126" priority="340" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M37:P37">
-    <cfRule type="cellIs" dxfId="125" priority="332" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M37:P37">
-    <cfRule type="cellIs" dxfId="124" priority="338" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M37:P37">
-    <cfRule type="cellIs" dxfId="123" priority="336" operator="equal">
-      <formula>"a"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="337" operator="equal">
-      <formula>"s"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M37:P37">
-    <cfRule type="cellIs" dxfId="121" priority="335" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M37:P37">
-    <cfRule type="cellIs" dxfId="120" priority="334" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M37:P37">
-    <cfRule type="cellIs" dxfId="119" priority="333" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P17">
-    <cfRule type="cellIs" dxfId="118" priority="330" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G17:H18 M17:N17">
-    <cfRule type="cellIs" dxfId="117" priority="326" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:P18">
-    <cfRule type="cellIs" dxfId="116" priority="304" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:P18">
-    <cfRule type="cellIs" dxfId="115" priority="302" operator="equal">
-      <formula>"a"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="303" operator="equal">
-      <formula>"s"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:P18">
-    <cfRule type="cellIs" dxfId="113" priority="298" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:P18">
-    <cfRule type="cellIs" dxfId="112" priority="301" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:P18">
-    <cfRule type="cellIs" dxfId="111" priority="300" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18:P18">
-    <cfRule type="cellIs" dxfId="110" priority="299" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M27:N27">
-    <cfRule type="cellIs" dxfId="109" priority="283" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M27:N27">
-    <cfRule type="cellIs" dxfId="108" priority="281" operator="equal">
-      <formula>"a"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="282" operator="equal">
-      <formula>"s"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M27:N27">
-    <cfRule type="cellIs" dxfId="106" priority="277" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M27:N27">
-    <cfRule type="cellIs" dxfId="105" priority="280" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M27:N27">
-    <cfRule type="cellIs" dxfId="104" priority="279" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M27:N27">
-    <cfRule type="cellIs" dxfId="103" priority="278" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M28:N28">
-    <cfRule type="cellIs" dxfId="102" priority="276" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M28:N28">
-    <cfRule type="cellIs" dxfId="101" priority="274" operator="equal">
-      <formula>"a"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="275" operator="equal">
-      <formula>"s"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M28:N28">
-    <cfRule type="cellIs" dxfId="99" priority="270" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M28:N28">
-    <cfRule type="cellIs" dxfId="98" priority="273" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M28:N28">
-    <cfRule type="cellIs" dxfId="97" priority="272" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M28:N28">
-    <cfRule type="cellIs" dxfId="96" priority="271" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M31:P31">
-    <cfRule type="cellIs" dxfId="95" priority="269" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M31:P31">
-    <cfRule type="cellIs" dxfId="94" priority="268" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M31:P31">
-    <cfRule type="cellIs" dxfId="93" priority="264" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M31:P31">
-    <cfRule type="cellIs" dxfId="92" priority="267" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M31:P31">
-    <cfRule type="cellIs" dxfId="91" priority="266" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M31:P31">
-    <cfRule type="cellIs" dxfId="90" priority="265" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O33:P33">
-    <cfRule type="cellIs" dxfId="89" priority="262" operator="equal">
-      <formula>"a"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="263" operator="equal">
-      <formula>"s"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O33:P33">
-    <cfRule type="cellIs" dxfId="87" priority="261" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O33:P33">
-    <cfRule type="cellIs" dxfId="86" priority="260" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O33:P33">
-    <cfRule type="cellIs" dxfId="85" priority="259" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O33:P33">
-    <cfRule type="cellIs" dxfId="84" priority="255" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O33:P33">
-    <cfRule type="cellIs" dxfId="83" priority="258" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O33:P33">
-    <cfRule type="cellIs" dxfId="82" priority="257" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O33:P33">
-    <cfRule type="cellIs" dxfId="81" priority="256" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O36:P36">
-    <cfRule type="cellIs" dxfId="80" priority="253" operator="equal">
-      <formula>"a"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="254" operator="equal">
-      <formula>"s"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O36:P36">
-    <cfRule type="cellIs" dxfId="78" priority="252" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O36:P36">
-    <cfRule type="cellIs" dxfId="77" priority="251" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O36:P36">
-    <cfRule type="cellIs" dxfId="76" priority="250" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O36:P36">
-    <cfRule type="cellIs" dxfId="75" priority="246" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O36:P36">
-    <cfRule type="cellIs" dxfId="74" priority="249" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O36:P36">
-    <cfRule type="cellIs" dxfId="73" priority="248" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O36:P36">
-    <cfRule type="cellIs" dxfId="72" priority="247" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O38:P38">
-    <cfRule type="cellIs" dxfId="71" priority="244" operator="equal">
-      <formula>"a"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="245" operator="equal">
-      <formula>"s"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O38:P38">
-    <cfRule type="cellIs" dxfId="69" priority="243" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O38:P38">
-    <cfRule type="cellIs" dxfId="68" priority="242" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O38:P38">
-    <cfRule type="cellIs" dxfId="67" priority="241" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O38:P38">
-    <cfRule type="cellIs" dxfId="66" priority="237" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O38:P38">
-    <cfRule type="cellIs" dxfId="65" priority="240" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O38:P38">
-    <cfRule type="cellIs" dxfId="64" priority="239" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O38:P38">
-    <cfRule type="cellIs" dxfId="63" priority="238" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20:N20">
-    <cfRule type="cellIs" dxfId="62" priority="236" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20:N20">
-    <cfRule type="cellIs" dxfId="61" priority="234" operator="equal">
-      <formula>"a"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="235" operator="equal">
-      <formula>"s"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20:N20">
-    <cfRule type="cellIs" dxfId="59" priority="230" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20:N20">
-    <cfRule type="cellIs" dxfId="58" priority="233" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20:N20">
-    <cfRule type="cellIs" dxfId="57" priority="232" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20:N20">
-    <cfRule type="cellIs" dxfId="56" priority="231" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25:L25">
-    <cfRule type="cellIs" dxfId="55" priority="229" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25:L25">
-    <cfRule type="cellIs" dxfId="54" priority="225" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25:L25">
-    <cfRule type="cellIs" dxfId="53" priority="228" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25:L25">
-    <cfRule type="cellIs" dxfId="52" priority="227" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25:L25">
-    <cfRule type="cellIs" dxfId="51" priority="226" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O40:P40">
-    <cfRule type="cellIs" dxfId="50" priority="196" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O40:P40">
-    <cfRule type="cellIs" dxfId="49" priority="194" operator="equal">
-      <formula>"a"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="195" operator="equal">
-      <formula>"s"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O40:P40">
-    <cfRule type="cellIs" dxfId="47" priority="190" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O40:P40">
-    <cfRule type="cellIs" dxfId="46" priority="193" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O40:P40">
-    <cfRule type="cellIs" dxfId="45" priority="192" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O40:P40">
-    <cfRule type="cellIs" dxfId="44" priority="191" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q9 Q13:T15 Q30:T30 Q36:T36 Q40:T40 Q42:T42">
-    <cfRule type="cellIs" dxfId="43" priority="168" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S9:T9">
-    <cfRule type="cellIs" dxfId="42" priority="167" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q6:T8 Q22:T25 Q11:T12 Q35:T35 Q37:T39 Q31:T33 Q19:T19 Q16:T17 Q43:T45 Q27:T28 Q20:R20">
-    <cfRule type="cellIs" dxfId="41" priority="166" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q4 S4 Q6:T9 Q42:T43 Q19:T19 Q27:T28 Q30:T33 Q20:R20 Q22:T25">
-    <cfRule type="cellIs" dxfId="40" priority="163" operator="equal">
-      <formula>"a"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="164" operator="equal">
-      <formula>"s"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R9">
-    <cfRule type="cellIs" dxfId="38" priority="162" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S27:T27">
-    <cfRule type="cellIs" dxfId="37" priority="130" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S27:T27">
-    <cfRule type="cellIs" dxfId="36" priority="129" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S27:T27">
-    <cfRule type="cellIs" dxfId="35" priority="128" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S27:T27">
-    <cfRule type="cellIs" dxfId="34" priority="127" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q22:R22">
-    <cfRule type="cellIs" dxfId="33" priority="126" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q22:R22">
-    <cfRule type="cellIs" dxfId="32" priority="125" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q22:R22">
-    <cfRule type="cellIs" dxfId="31" priority="124" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q22:R22">
-    <cfRule type="cellIs" dxfId="30" priority="123" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q22:R22">
-    <cfRule type="cellIs" dxfId="29" priority="122" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S24:T24">
-    <cfRule type="cellIs" dxfId="28" priority="121" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S24:T24">
-    <cfRule type="cellIs" dxfId="27" priority="120" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S24:T24">
-    <cfRule type="cellIs" dxfId="26" priority="119" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S24:T24">
-    <cfRule type="cellIs" dxfId="25" priority="118" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S16:T16">
-    <cfRule type="cellIs" dxfId="24" priority="109" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q25:R25">
-    <cfRule type="cellIs" dxfId="23" priority="108" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q25:R25">
-    <cfRule type="cellIs" dxfId="22" priority="104" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q25:R25">
-    <cfRule type="cellIs" dxfId="21" priority="107" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q25:R25">
-    <cfRule type="cellIs" dxfId="20" priority="106" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q25:R25">
-    <cfRule type="cellIs" dxfId="19" priority="105" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q18:T18">
-    <cfRule type="cellIs" dxfId="18" priority="80" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q18:T18">
-    <cfRule type="cellIs" dxfId="17" priority="78" operator="equal">
-      <formula>"a"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="79" operator="equal">
-      <formula>"s"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q18:T18">
-    <cfRule type="cellIs" dxfId="15" priority="74" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q18:T18">
-    <cfRule type="cellIs" dxfId="14" priority="77" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q18:T18">
-    <cfRule type="cellIs" dxfId="13" priority="76" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q18:T18">
-    <cfRule type="cellIs" dxfId="12" priority="75" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S20:T20">
-    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S20:T20">
-    <cfRule type="cellIs" dxfId="10" priority="17" operator="equal">
-      <formula>"a"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="18" operator="equal">
-      <formula>"s"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S20:T20">
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S20:T20">
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S20:T20">
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S20:T20">
-    <cfRule type="cellIs" dxfId="5" priority="14" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S25:T25">
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S25:T25">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S25:T25">
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S25:T25">
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="equal">
-      <formula>" "</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S25:T25">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
-      <formula>" "</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.78740157480314965" right="0.70866141732283472" top="1.1811023622047245" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4888,14 +5448,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="09d37968-56c7-4393-96a9-3b9c6b61c150" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f045b350-d315-4c7d-ac38-fb7b310590b3">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5147,21 +5705,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="09d37968-56c7-4393-96a9-3b9c6b61c150" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f045b350-d315-4c7d-ac38-fb7b310590b3">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9ACA05-8FB3-48D0-B0C7-A68927B6936B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D11451F8-52DA-4F4F-B5A5-618910EF1B9A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="09d37968-56c7-4393-96a9-3b9c6b61c150"/>
-    <ds:schemaRef ds:uri="f045b350-d315-4c7d-ac38-fb7b310590b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5187,9 +5744,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D11451F8-52DA-4F4F-B5A5-618910EF1B9A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF9ACA05-8FB3-48D0-B0C7-A68927B6936B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="09d37968-56c7-4393-96a9-3b9c6b61c150"/>
+    <ds:schemaRef ds:uri="f045b350-d315-4c7d-ac38-fb7b310590b3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>